--- a/data/raw/eSTZ_consistency_formatting.xlsx
+++ b/data/raw/eSTZ_consistency_formatting.xlsx
@@ -5,29 +5,29 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Raw File Paths" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Standards" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Filename scheme formated" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Filing structure formated" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Filename schema" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Filing structure formatted" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Files included" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="pdf maps traits" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="pdf maps formated" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="pdf maps formatted" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="&quot;more info&quot; traits" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="&quot;more info&quot; formated" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="_xlchart.v1.0" vbProcedure="false">'pdf maps formated'!$A$37:$B$37</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.1" vbProcedure="false">'pdf maps formated'!$A$2:$A$37</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.2" vbProcedure="false">'pdf maps formated'!$B$2:$B$37</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.3" vbProcedure="false">'pdf maps formated'!$A$37:$B$37</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.4" vbProcedure="false">'pdf maps formated'!$A$2:$A$37</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.5" vbProcedure="false">'pdf maps formated'!$B$2:$B$37</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.6" vbProcedure="false">'pdf maps formated'!$A$37:$B$37</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.7" vbProcedure="false">'pdf maps formated'!$A$2:$A$37</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.8" vbProcedure="false">'pdf maps formated'!$B$2:$B$37</definedName>
+    <definedName function="false" hidden="false" name="_xlchart.v1.0" vbProcedure="false">'pdf maps formatted'!$A$37:$B$37</definedName>
+    <definedName function="false" hidden="false" name="_xlchart.v1.1" vbProcedure="false">'pdf maps formatted'!$A$2:$A$37</definedName>
+    <definedName function="false" hidden="false" name="_xlchart.v1.2" vbProcedure="false">'pdf maps formatted'!$B$2:$B$37</definedName>
+    <definedName function="false" hidden="false" name="_xlchart.v1.3" vbProcedure="false">'pdf maps formatted'!$A$37:$B$37</definedName>
+    <definedName function="false" hidden="false" name="_xlchart.v1.4" vbProcedure="false">'pdf maps formatted'!$A$2:$A$37</definedName>
+    <definedName function="false" hidden="false" name="_xlchart.v1.5" vbProcedure="false">'pdf maps formatted'!$B$2:$B$37</definedName>
+    <definedName function="false" hidden="false" name="_xlchart.v1.6" vbProcedure="false">'pdf maps formatted'!$A$37:$B$37</definedName>
+    <definedName function="false" hidden="false" name="_xlchart.v1.7" vbProcedure="false">'pdf maps formatted'!$A$2:$A$37</definedName>
+    <definedName function="false" hidden="false" name="_xlchart.v1.8" vbProcedure="false">'pdf maps formatted'!$B$2:$B$37</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="575">
   <si>
     <t xml:space="preserve">File 1 -&gt;</t>
   </si>
@@ -1977,9 +1977,6 @@
     <t xml:space="preserve">- Literature (full name of paper!!!!)</t>
   </si>
   <si>
-    <t xml:space="preserve">Filename_Scheme</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trait</t>
   </si>
   <si>
@@ -1995,13 +1992,13 @@
     <t xml:space="preserve">common_name</t>
   </si>
   <si>
-    <t xml:space="preserve">USDA_PLANTS_code_lower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USDA_PLANTS_code_upper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ScientificNo._spelled_out</t>
+    <t xml:space="preserve">NRCS_PLANTS_lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRCS_PLANTS_upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scientific_name</t>
   </si>
   <si>
     <t xml:space="preserve">Filename-Geographic_Extent</t>
@@ -2013,7 +2010,7 @@
     <t xml:space="preserve">Not-specified</t>
   </si>
   <si>
-    <t xml:space="preserve">Filename-seedzone</t>
+    <t xml:space="preserve">Filename-Seed_Zone</t>
   </si>
   <si>
     <t xml:space="preserve">seed_zone</t>
@@ -2043,10 +2040,7 @@
     <t xml:space="preserve">one_species</t>
   </si>
   <si>
-    <t xml:space="preserve">Filename-Coordinate_reference_system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filing_Structure</t>
+    <t xml:space="preserve">Filename-Coordinate_Reference_System</t>
   </si>
   <si>
     <t xml:space="preserve">File-No</t>
@@ -2998,11 +2992,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Filename scheme formated'!$C$3:$C$20</c:f>
+              <c:f>'Filename schema'!$C$2:$C$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>common_name USDA_PLANTS_code_lower USDA_PLANTS_code_upper ScientificNo._spelled_out Specified Not-specified seed_zone zone missing sz Specified Not_specified two_species one_species Specified Not_specified</c:v>
+                  <c:v>common_name NRCS_PLANTS_lower NRCS_PLANTS_upper scientific_name Specified Not-specified seed_zone zone missing sz Specified Not_specified two_species one_species Specified Not_specified</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3048,20 +3042,20 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Filename scheme formated'!$C$3:$C$20</c:f>
+              <c:f>'Filename schema'!$C$2:$C$19</c:f>
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>common_name</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>USDA_PLANTS_code_lower</c:v>
+                  <c:v>NRCS_PLANTS_lower</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>USDA_PLANTS_code_upper</c:v>
+                  <c:v>NRCS_PLANTS_upper</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ScientificNo._spelled_out</c:v>
+                  <c:v>scientific_name</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Specified</c:v>
@@ -3110,7 +3104,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Filename scheme formated'!$B$3:$B$18</c:f>
+              <c:f>'Filename schema'!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3168,11 +3162,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="65067587"/>
-        <c:axId val="5929362"/>
+        <c:axId val="94458788"/>
+        <c:axId val="7190176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65067587"/>
+        <c:axId val="94458788"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3205,7 +3199,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5929362"/>
+        <c:crossAx val="7190176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3213,7 +3207,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5929362"/>
+        <c:axId val="7190176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3253,7 +3247,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65067587"/>
+        <c:crossAx val="94458788"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3297,11 +3291,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Filename scheme formated'!$C$3:$C$20</c:f>
+              <c:f>'Filename schema'!$C$2:$C$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>common_name USDA_PLANTS_code_lower USDA_PLANTS_code_upper ScientificNo._spelled_out Specified Not-specified seed_zone zone missing sz Specified Not_specified two_species one_species Specified Not_specified</c:v>
+                  <c:v>common_name NRCS_PLANTS_lower NRCS_PLANTS_upper scientific_name Specified Not-specified seed_zone zone missing sz Specified Not_specified two_species one_species Specified Not_specified</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3347,7 +3341,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Filing structure formated'!$A$3:$A$7</c:f>
+              <c:f>'Filing structure formatted'!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3370,7 +3364,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Filing structure formated'!$B$3:$B$7</c:f>
+              <c:f>'Filing structure formatted'!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3395,11 +3389,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="3845704"/>
-        <c:axId val="7913624"/>
+        <c:axId val="14929163"/>
+        <c:axId val="3103334"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="3845704"/>
+        <c:axId val="14929163"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3432,7 +3426,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7913624"/>
+        <c:crossAx val="3103334"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3440,7 +3434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7913624"/>
+        <c:axId val="3103334"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3480,7 +3474,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3845704"/>
+        <c:crossAx val="14929163"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3700,11 +3694,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="19533912"/>
-        <c:axId val="28708576"/>
+        <c:axId val="36331128"/>
+        <c:axId val="98572391"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="19533912"/>
+        <c:axId val="36331128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3737,7 +3731,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28708576"/>
+        <c:crossAx val="98572391"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3745,7 +3739,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28708576"/>
+        <c:axId val="98572391"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3785,7 +3779,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19533912"/>
+        <c:crossAx val="36331128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3829,7 +3823,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'pdf maps formated'!$A$37:$B$37</c:f>
+              <c:f>'pdf maps formatted'!$A$37:$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3879,7 +3873,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'pdf maps formated'!$A$2:$A$37</c:f>
+              <c:f>'pdf maps formatted'!$A$2:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
@@ -3995,7 +3989,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pdf maps formated'!$B$2:$B$37</c:f>
+              <c:f>'pdf maps formatted'!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -4113,11 +4107,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="59569442"/>
-        <c:axId val="77411810"/>
+        <c:axId val="43361421"/>
+        <c:axId val="46221327"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59569442"/>
+        <c:axId val="43361421"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4150,7 +4144,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77411810"/>
+        <c:crossAx val="46221327"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4158,7 +4152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77411810"/>
+        <c:axId val="46221327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4198,7 +4192,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59569442"/>
+        <c:crossAx val="43361421"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4364,11 +4358,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="14684387"/>
-        <c:axId val="84137479"/>
+        <c:axId val="34155056"/>
+        <c:axId val="95706713"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="14684387"/>
+        <c:axId val="34155056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4401,7 +4395,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84137479"/>
+        <c:crossAx val="95706713"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4409,7 +4403,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84137479"/>
+        <c:axId val="95706713"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4449,7 +4443,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14684387"/>
+        <c:crossAx val="34155056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4481,16 +4475,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>260280</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>184320</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>890640</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>380520</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>816480</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4498,8 +4492,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2423880" y="2384640"/>
-        <a:ext cx="5787000" cy="4841640"/>
+        <a:off x="5558400" y="2060280"/>
+        <a:ext cx="5839560" cy="4838040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4518,14 +4512,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:colOff>65880</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4533,8 +4527,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2997720" y="1800360"/>
-        <a:ext cx="5783400" cy="4831920"/>
+        <a:off x="3021840" y="1600200"/>
+        <a:ext cx="5839920" cy="4828320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4551,16 +4545,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>324000</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>801360</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>184320</xdr:rowOff>
+      <xdr:rowOff>127080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>56880</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>309240</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>69840</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4568,8 +4562,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2428560" y="2384640"/>
-        <a:ext cx="4212720" cy="2885760"/>
+        <a:off x="8340840" y="2327400"/>
+        <a:ext cx="4244760" cy="2882160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4593,9 +4587,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>12240</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>21240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4603,8 +4597,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4627080" y="1082520"/>
-        <a:ext cx="7094520" cy="5943240"/>
+        <a:off x="4662720" y="1082520"/>
+        <a:ext cx="7187400" cy="5939640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4628,9 +4622,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>666360</xdr:colOff>
+      <xdr:colOff>662760</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4638,8 +4632,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6281640" y="2933640"/>
-        <a:ext cx="4212720" cy="2885760"/>
+        <a:off x="6365880" y="2933640"/>
+        <a:ext cx="4257360" cy="2882160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4659,22 +4653,22 @@
   </sheetPr>
   <dimension ref="A1:Z297"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="E174" activeCellId="0" sqref="E174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="53.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="53.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15730,13 +15724,13 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.33"/>
@@ -15809,42 +15803,47 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>383</v>
@@ -15852,10 +15851,10 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>384</v>
@@ -15863,10 +15862,10 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>385</v>
@@ -15874,21 +15873,21 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>388</v>
@@ -15896,21 +15895,21 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>391</v>
@@ -15918,10 +15917,10 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>392</v>
@@ -15929,10 +15928,10 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>393</v>
@@ -15940,81 +15939,71 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>397</v>
+      <c r="A16" s="0" t="s">
+        <v>399</v>
       </c>
       <c r="B16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B17" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>1</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="B18" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -16032,13 +16021,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.67"/>
@@ -16046,80 +16035,74 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+        <v>378</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>379</v>
+        <v>400</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>403</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F15" s="20"/>
-    </row>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F14" s="20"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -16139,335 +16122,335 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="28.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="28.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>380</v>
-      </c>
       <c r="C2" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>380</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>4</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>4</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>2</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>4</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>4</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E15" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F15" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E16" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F16" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -16489,13 +16472,13 @@
   </sheetPr>
   <dimension ref="A1:W76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D81" activeCellId="0" sqref="D81"/>
+      <selection pane="bottomLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.16"/>
@@ -16503,70 +16486,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>448</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>6</v>
@@ -16574,2006 +16557,2006 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>458</v>
-      </c>
       <c r="P2" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>458</v>
-      </c>
       <c r="P3" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>458</v>
-      </c>
       <c r="P4" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>458</v>
-      </c>
       <c r="P5" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>458</v>
-      </c>
       <c r="P6" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>468</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>472</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>476</v>
-      </c>
       <c r="M9" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>487</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="W15" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="D17" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="F17" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="M17" s="3" t="s">
+      <c r="O17" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="V17" s="3" t="s">
         <v>497</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>495</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="N18" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>498</v>
-      </c>
       <c r="O18" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="N19" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>498</v>
-      </c>
       <c r="O19" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="N20" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>498</v>
-      </c>
       <c r="O20" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="T28" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>515</v>
-      </c>
       <c r="U28" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="T29" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>515</v>
-      </c>
       <c r="U29" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="T30" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="T30" s="3" t="s">
-        <v>515</v>
-      </c>
       <c r="U30" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>6</v>
@@ -18581,447 +18564,447 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>12</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B37" s="3" t="n">
         <v>16</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B38" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B39" s="3" t="n">
         <v>12</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B40" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B41" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B42" s="3" t="n">
         <v>19</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B43" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B44" s="3" t="n">
         <v>19</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B45" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B46" s="3" t="n">
         <v>19</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B47" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B48" s="3" t="n">
         <v>17</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B49" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B50" s="3" t="n">
         <v>19</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B51" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B52" s="3" t="n">
         <v>19</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B53" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B54" s="3" t="n">
         <v>13</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B55" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B56" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B57" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B58" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B59" s="3" t="n">
         <v>19</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B60" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B61" s="3" t="n">
         <v>12</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B62" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B63" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B64" s="3" t="n">
         <v>18</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B69" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B70" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B71" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B72" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B73" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B74" s="3" t="n">
         <v>15</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="69.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="14" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -19042,420 +19025,420 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B17" s="3" t="n">
         <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B18" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B19" s="3" t="n">
         <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="22" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B20" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="22" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="22" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B26" s="3" t="n">
         <v>19</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B27" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="22" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B28" s="3" t="n">
         <v>12</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B29" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B30" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B31" s="3" t="n">
         <v>18</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="22" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B32" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="22" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B37" s="3" t="n">
         <v>15</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -19478,13 +19461,13 @@
   </sheetPr>
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.16"/>
@@ -19493,13 +19476,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -19529,332 +19512,332 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>6</v>
@@ -19862,48 +19845,48 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>21</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B37" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B38" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -19924,54 +19907,54 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M24" activeCellId="0" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/eSTZ_consistency_formatting.xlsx
+++ b/data/raw/eSTZ_consistency_formatting.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Raw File Paths" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="576">
   <si>
     <t xml:space="preserve">File 1 -&gt;</t>
   </si>
@@ -2482,6 +2482,9 @@
   </si>
   <si>
     <t xml:space="preserve">Note: Total should be 20 (does not include 5 with no map or provisional seed zones maps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MapFeature-Ecotype_Description</t>
   </si>
   <si>
     <t xml:space="preserve">MapFeature-Ploidy_Key</t>
@@ -3162,11 +3165,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="94458788"/>
-        <c:axId val="7190176"/>
+        <c:axId val="33258401"/>
+        <c:axId val="10456273"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94458788"/>
+        <c:axId val="33258401"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3199,7 +3202,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7190176"/>
+        <c:crossAx val="10456273"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3207,7 +3210,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7190176"/>
+        <c:axId val="10456273"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3247,7 +3250,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94458788"/>
+        <c:crossAx val="33258401"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3389,11 +3392,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="14929163"/>
-        <c:axId val="3103334"/>
+        <c:axId val="86535561"/>
+        <c:axId val="1226554"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="14929163"/>
+        <c:axId val="86535561"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3426,7 +3429,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3103334"/>
+        <c:crossAx val="1226554"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3434,7 +3437,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3103334"/>
+        <c:axId val="1226554"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3474,7 +3477,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14929163"/>
+        <c:crossAx val="86535561"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3694,11 +3697,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="36331128"/>
-        <c:axId val="98572391"/>
+        <c:axId val="17501551"/>
+        <c:axId val="44126038"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="36331128"/>
+        <c:axId val="17501551"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3731,7 +3734,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98572391"/>
+        <c:crossAx val="44126038"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3739,7 +3742,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98572391"/>
+        <c:axId val="44126038"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3779,7 +3782,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36331128"/>
+        <c:crossAx val="17501551"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3895,10 +3898,10 @@
                   <c:v>MapFeature-Zone_Key</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>MapFeature-Ecotype_Discription</c:v>
+                  <c:v>MapFeature-Ecotype_Description</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>MapFeature-Ecotype_Discription</c:v>
+                  <c:v>MapFeature-Ecotype_Description</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>MapFeature-Percent_Cover</c:v>
@@ -4107,11 +4110,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="43361421"/>
-        <c:axId val="46221327"/>
+        <c:axId val="1234722"/>
+        <c:axId val="71920498"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43361421"/>
+        <c:axId val="1234722"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4144,7 +4147,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46221327"/>
+        <c:crossAx val="71920498"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4152,7 +4155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46221327"/>
+        <c:axId val="71920498"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4192,7 +4195,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43361421"/>
+        <c:crossAx val="1234722"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4358,11 +4361,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="34155056"/>
-        <c:axId val="95706713"/>
+        <c:axId val="78629627"/>
+        <c:axId val="9473481"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="34155056"/>
+        <c:axId val="78629627"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4395,7 +4398,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95706713"/>
+        <c:crossAx val="9473481"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4403,7 +4406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95706713"/>
+        <c:axId val="9473481"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4443,7 +4446,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34155056"/>
+        <c:crossAx val="78629627"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4482,9 +4485,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>816480</xdr:colOff>
+      <xdr:colOff>816120</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>97560</xdr:rowOff>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4492,8 +4495,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5558400" y="2060280"/>
-        <a:ext cx="5839560" cy="4838040"/>
+        <a:off x="5559840" y="2060280"/>
+        <a:ext cx="5845680" cy="4837680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4517,9 +4520,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>65880</xdr:colOff>
+      <xdr:colOff>65520</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4527,8 +4530,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3021840" y="1600200"/>
-        <a:ext cx="5839920" cy="4828320"/>
+        <a:off x="3024360" y="1600200"/>
+        <a:ext cx="5846040" cy="4827960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4552,9 +4555,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>309240</xdr:colOff>
+      <xdr:colOff>308880</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4562,8 +4565,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8340840" y="2327400"/>
-        <a:ext cx="4244760" cy="2882160"/>
+        <a:off x="8346960" y="2327400"/>
+        <a:ext cx="4248360" cy="2881800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4587,9 +4590,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>8640</xdr:colOff>
+      <xdr:colOff>8280</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4597,8 +4600,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4662720" y="1082520"/>
-        <a:ext cx="7187400" cy="5939640"/>
+        <a:off x="4666320" y="1082520"/>
+        <a:ext cx="7197480" cy="5939280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4622,9 +4625,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>662760</xdr:colOff>
+      <xdr:colOff>662400</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4632,8 +4635,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6365880" y="2933640"/>
-        <a:ext cx="4257360" cy="2882160"/>
+        <a:off x="6374880" y="2933640"/>
+        <a:ext cx="4262040" cy="2881800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4653,13 +4656,13 @@
   </sheetPr>
   <dimension ref="A1:Z297"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="E174" activeCellId="0" sqref="E174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.66"/>
@@ -15728,7 +15731,7 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.33"/>
@@ -15809,7 +15812,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.66"/>
@@ -16027,7 +16030,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.67"/>
@@ -16126,7 +16129,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.52"/>
@@ -16478,7 +16481,7 @@
       <selection pane="bottomLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.16"/>
@@ -19025,11 +19028,11 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.66"/>
   </cols>
@@ -19113,7 +19116,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>1</v>
@@ -19124,7 +19127,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>19</v>
@@ -19157,7 +19160,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>1</v>
@@ -19168,7 +19171,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>19</v>
@@ -19399,7 +19402,7 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="22" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>11</v>
@@ -19410,7 +19413,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B35" s="3" t="n">
         <v>9</v>
@@ -19467,7 +19470,7 @@
       <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.16"/>
@@ -19482,7 +19485,7 @@
         <v>426</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -19518,7 +19521,7 @@
         <v>448</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19529,7 +19532,7 @@
         <v>457</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19540,7 +19543,7 @@
         <v>459</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19551,7 +19554,7 @@
         <v>460</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19562,7 +19565,7 @@
         <v>461</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19573,7 +19576,7 @@
         <v>463</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19584,7 +19587,7 @@
         <v>467</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19595,7 +19598,7 @@
         <v>471</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19606,7 +19609,7 @@
         <v>475</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19617,7 +19620,7 @@
         <v>477</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19628,7 +19631,7 @@
         <v>479</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19639,7 +19642,7 @@
         <v>481</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19650,7 +19653,7 @@
         <v>483</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19661,7 +19664,7 @@
         <v>492</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19672,7 +19675,7 @@
         <v>498</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19683,7 +19686,7 @@
         <v>500</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19694,7 +19697,7 @@
         <v>502</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19705,7 +19708,7 @@
         <v>503</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19716,7 +19719,7 @@
         <v>508</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19727,7 +19730,7 @@
         <v>509</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19738,7 +19741,7 @@
         <v>510</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19749,7 +19752,7 @@
         <v>486</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19760,7 +19763,7 @@
         <v>489</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19793,7 +19796,7 @@
         <v>512</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19815,7 +19818,7 @@
         <v>515</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19826,7 +19829,7 @@
         <v>521</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19845,32 +19848,32 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B36" s="3" t="n">
         <v>21</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B37" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B38" s="3" t="n">
         <v>2</v>
@@ -19881,12 +19884,12 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -19911,7 +19914,7 @@
       <selection pane="topLeft" activeCell="M24" activeCellId="0" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -19926,29 +19929,29 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>2</v>
